--- a/prizmer/static/excel/heat_template_for_load.xlsx
+++ b/prizmer/static/excel/heat_template_for_load.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Heat_1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Heat_1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
   <si>
     <t xml:space="preserve">Населенный пункт</t>
   </si>
@@ -145,19 +145,25 @@
     <t xml:space="preserve">Квартира 0006</t>
   </si>
   <si>
+    <t xml:space="preserve">Корпус 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Квартира 0125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пульс СТК Теплосчётчик</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.30.0.26</t>
+  </si>
+  <si>
     <t xml:space="preserve">*Нумерация квартир должна содержать нули, чтобы все числа имели одинаковый формат, иначе будут проблемы с сортировкой, лишние пробелы в наименовании так же могут сбить сортировку</t>
   </si>
   <si>
-    <t xml:space="preserve">Корпус 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Квартира 0125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пульс СТК Теплосчётчик</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172.30.0.26</t>
+    <t xml:space="preserve">ЭкоНом Теплосчётчик</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.30.0.27</t>
   </si>
   <si>
     <t xml:space="preserve">**Для приборов Саяны так же необходимо создать bat-файлы для опроса счётчиков через ретрансляторы и АРСУ</t>
@@ -321,11 +327,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -338,7 +348,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -346,55 +356,43 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -493,86 +491,192 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AA14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
+      <selection pane="topLeft" activeCell="K23" activeCellId="0" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="5.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="5.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="18.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="11"/>
@@ -583,305 +687,415 @@
       <c r="H2" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="10" t="n">
+      <c r="J2" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="10" t="n">
+      <c r="L2" s="11" t="n">
         <v>4001</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12" t="n">
+      <c r="E4" s="11"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14" t="n">
         <v>655276</v>
       </c>
-      <c r="H4" s="12" t="n">
+      <c r="H4" s="14" t="n">
         <v>655276</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="10" t="n">
+      <c r="J4" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="13" t="n">
+      <c r="L4" s="11" t="n">
         <v>4004</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="14" t="s">
+      <c r="E6" s="11"/>
+      <c r="F6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="15" t="n">
+      <c r="H6" s="11" t="n">
         <v>46</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="10" t="n">
+      <c r="J6" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="10" t="n">
+      <c r="L6" s="11" t="n">
         <v>4001</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="14" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="15" t="n">
+      <c r="H7" s="11" t="n">
         <v>47</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="10" t="n">
+      <c r="J7" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="10" t="n">
+      <c r="L7" s="11" t="n">
         <v>4001</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L8" s="17"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10" t="n">
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11" t="n">
         <v>25392417</v>
       </c>
-      <c r="H9" s="10" t="n">
+      <c r="H9" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="10" t="n">
+      <c r="J9" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="L9" s="10" t="n">
+      <c r="L9" s="11" t="n">
         <v>3002</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10" t="n">
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11" t="n">
         <v>3472</v>
       </c>
-      <c r="H11" s="10" t="n">
+      <c r="H11" s="11" t="n">
         <v>3472</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="10" t="n">
+      <c r="J11" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="L11" s="10" t="n">
+      <c r="L11" s="11" t="n">
         <v>10001</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10" t="n">
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11" t="n">
         <v>3947</v>
       </c>
-      <c r="H12" s="10" t="n">
+      <c r="H12" s="11" t="n">
         <v>3947</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="10" t="n">
+      <c r="J12" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="L12" s="10" t="n">
+      <c r="L12" s="11" t="n">
         <v>10001</v>
       </c>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
     </row>
     <row r="13" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="R13" s="18" t="s">
+      <c r="A13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="18"/>
-      <c r="AA13" s="18"/>
+      <c r="D13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14" t="n">
+        <v>19030701</v>
+      </c>
+      <c r="H13" s="14" t="n">
+        <v>19030701</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="11" t="n">
+        <v>4001</v>
+      </c>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="R13" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
     </row>
     <row r="14" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12" t="n">
-        <v>19030701</v>
-      </c>
-      <c r="H14" s="12" t="n">
-        <v>19030701</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" s="10" t="n">
+      <c r="E14" s="11"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14" t="n">
+        <v>12</v>
+      </c>
+      <c r="H14" s="14" t="n">
+        <v>12</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="K14" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="L14" s="13" t="n">
-        <v>4001</v>
-      </c>
-      <c r="R14" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18"/>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="18"/>
-      <c r="AA14" s="18"/>
+      <c r="K14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" s="11" t="n">
+        <v>4002</v>
+      </c>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="R14" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="R13:AA13"/>
     <mergeCell ref="R14:AA14"/>
   </mergeCells>
-  <conditionalFormatting sqref="G4 G14">
+  <conditionalFormatting sqref="G4 G13:G14">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4 H14">
+  <conditionalFormatting sqref="H4 H13:H14">
     <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/prizmer/static/excel/heat_template_for_load.xlsx
+++ b/prizmer/static/excel/heat_template_for_load.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
   <si>
     <t xml:space="preserve">Населенный пункт</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t xml:space="preserve">**Для приборов Саяны так же необходимо создать bat-файлы для опроса счётчиков через ретрансляторы и АРСУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Декаст Теплосчётчик </t>
   </si>
 </sst>
 </file>
@@ -376,10 +379,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -394,6 +393,10 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -602,22 +605,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA14"/>
+  <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K23" activeCellId="0" sqref="K23"/>
+      <selection pane="topLeft" activeCell="M22" activeCellId="0" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="18.29"/>
   </cols>
@@ -703,17 +706,17 @@
       <c r="N2" s="12"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
@@ -732,11 +735,11 @@
         <v>20</v>
       </c>
       <c r="E4" s="11"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14" t="n">
+      <c r="F4" s="13"/>
+      <c r="G4" s="13" t="n">
         <v>655276</v>
       </c>
-      <c r="H4" s="14" t="n">
+      <c r="H4" s="13" t="n">
         <v>655276</v>
       </c>
       <c r="I4" s="11" t="s">
@@ -755,17 +758,17 @@
       <c r="N4" s="12"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
       <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
@@ -799,7 +802,7 @@
       <c r="J6" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="14" t="s">
         <v>29</v>
       </c>
       <c r="L6" s="11" t="n">
@@ -837,7 +840,7 @@
       <c r="J7" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="14" t="s">
         <v>29</v>
       </c>
       <c r="L7" s="11" t="n">
@@ -847,18 +850,18 @@
       <c r="N7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
       <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
     </row>
@@ -899,23 +902,23 @@
       <c r="N9" s="12"/>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -951,7 +954,7 @@
       <c r="N11" s="12"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -1000,11 +1003,11 @@
         <v>42</v>
       </c>
       <c r="E13" s="11"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14" t="n">
+      <c r="F13" s="13"/>
+      <c r="G13" s="13" t="n">
         <v>19030701</v>
       </c>
-      <c r="H13" s="14" t="n">
+      <c r="H13" s="13" t="n">
         <v>19030701</v>
       </c>
       <c r="I13" s="11" t="s">
@@ -1021,18 +1024,18 @@
       </c>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
-      <c r="R13" s="16" t="s">
+      <c r="R13" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="16"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
     </row>
     <row r="14" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
@@ -1048,11 +1051,11 @@
         <v>42</v>
       </c>
       <c r="E14" s="11"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14" t="n">
+      <c r="F14" s="13"/>
+      <c r="G14" s="13" t="n">
         <v>12</v>
       </c>
-      <c r="H14" s="14" t="n">
+      <c r="H14" s="13" t="n">
         <v>12</v>
       </c>
       <c r="I14" s="11" t="s">
@@ -1069,28 +1072,64 @@
       </c>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
-      <c r="R14" s="16" t="s">
+      <c r="R14" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="16"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13" t="n">
+        <v>121415</v>
+      </c>
+      <c r="H15" s="13" t="n">
+        <v>15</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="L15" s="11" t="n">
+        <v>4002</v>
+      </c>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="R13:AA13"/>
     <mergeCell ref="R14:AA14"/>
   </mergeCells>
-  <conditionalFormatting sqref="G4 G13:G14">
+  <conditionalFormatting sqref="G4 G13:G15">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4 H13:H14">
+  <conditionalFormatting sqref="H4 H13:H15">
     <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/prizmer/static/excel/heat_template_for_load.xlsx
+++ b/prizmer/static/excel/heat_template_for_load.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
   <si>
     <t xml:space="preserve">Населенный пункт</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t xml:space="preserve">Декаст Теплосчётчик </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danfoss SonoMeter-500</t>
   </si>
 </sst>
 </file>
@@ -395,7 +398,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -605,13 +608,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA15"/>
+  <dimension ref="A1:AA16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M22" activeCellId="0" sqref="M22"/>
+      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.84"/>
@@ -625,7 +628,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="18.29"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -669,7 +672,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
@@ -705,7 +708,7 @@
       <c r="M2" s="12"/>
       <c r="N2" s="12"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -721,7 +724,7 @@
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
         <v>14</v>
       </c>
@@ -757,7 +760,7 @@
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -773,7 +776,7 @@
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
         <v>23</v>
       </c>
@@ -811,7 +814,7 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
         <v>23</v>
       </c>
@@ -849,7 +852,7 @@
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -865,7 +868,7 @@
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
@@ -917,7 +920,7 @@
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="s">
         <v>14</v>
       </c>
@@ -953,7 +956,7 @@
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
         <v>14</v>
       </c>
@@ -1085,7 +1088,7 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="15"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
         <v>14</v>
       </c>
@@ -1120,6 +1123,42 @@
       </c>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11" t="n">
+        <v>173456974</v>
+      </c>
+      <c r="H16" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="11" t="n">
+        <v>4001</v>
+      </c>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/prizmer/static/excel/heat_template_for_load.xlsx
+++ b/prizmer/static/excel/heat_template_for_load.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="53">
   <si>
     <t xml:space="preserve">Населенный пункт</t>
   </si>
@@ -173,6 +173,12 @@
   </si>
   <si>
     <t xml:space="preserve">Danfoss SonoMeter-500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пульсар IoT Тепло-объем</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пульсар IoT Тепло-энергия</t>
   </si>
 </sst>
 </file>
@@ -333,7 +339,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -400,6 +406,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -608,10 +618,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA16"/>
+  <dimension ref="A1:AA18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
+      <selection pane="topLeft" activeCell="L27" activeCellId="0" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -623,7 +633,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="26.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="18.29"/>
   </cols>
@@ -1160,15 +1170,87 @@
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
     </row>
+    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13" t="n">
+        <v>855276</v>
+      </c>
+      <c r="H17" s="13" t="n">
+        <v>855276</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="J17" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="11" t="n">
+        <v>4004</v>
+      </c>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+    </row>
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13" t="n">
+        <v>855278</v>
+      </c>
+      <c r="H18" s="13" t="n">
+        <v>855278</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="J18" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="11" t="n">
+        <v>4004</v>
+      </c>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="R13:AA13"/>
     <mergeCell ref="R14:AA14"/>
   </mergeCells>
-  <conditionalFormatting sqref="G4 G13:G15">
+  <conditionalFormatting sqref="G4 G13:G15 G17:G18">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4 H13:H15">
+  <conditionalFormatting sqref="H4 H13:H15 H17:H18">
     <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/prizmer/static/excel/heat_template_for_load.xlsx
+++ b/prizmer/static/excel/heat_template_for_load.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="59">
   <si>
     <t xml:space="preserve">Населенный пункт</t>
   </si>
@@ -64,6 +64,9 @@
     <t xml:space="preserve">Стояк </t>
   </si>
   <si>
+    <t xml:space="preserve">Импульсные каналы</t>
+  </si>
+  <si>
     <t xml:space="preserve">г.Москва</t>
   </si>
   <si>
@@ -179,6 +182,21 @@
   </si>
   <si>
     <t xml:space="preserve">Пульсар IoT Тепло-энергия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВКТ9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Корпус 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Квартира 0111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Теплосчётчик Ридан РУТ-01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> да</t>
   </si>
 </sst>
 </file>
@@ -339,7 +357,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -380,6 +398,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -390,6 +412,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -404,12 +430,8 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -618,10 +640,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA18"/>
+  <dimension ref="A1:AA20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L27" activeCellId="0" sqref="L27"/>
+      <selection pane="topLeft" activeCell="M34" activeCellId="0" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -636,6 +658,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="26.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="18.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="12.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -681,566 +704,662 @@
       <c r="N1" s="9" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="10" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="B2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11" t="n">
+      <c r="D2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12" t="n">
         <v>173456974</v>
       </c>
-      <c r="H2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="11" t="s">
+      <c r="H2" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="12" t="n">
+        <v>4001</v>
+      </c>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="14"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="14"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15" t="n">
+        <v>655276</v>
+      </c>
+      <c r="H4" s="15" t="n">
+        <v>655276</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="12" t="n">
+        <v>4004</v>
+      </c>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="14"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="14"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="12" t="n">
+        <v>46</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="12" t="n">
+        <v>4001</v>
+      </c>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="14"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="12" t="n">
+        <v>47</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="12" t="n">
+        <v>4001</v>
+      </c>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="14"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="14"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12" t="n">
+        <v>25392417</v>
+      </c>
+      <c r="H9" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="12" t="n">
+        <v>3002</v>
+      </c>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="14"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="14"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12" t="n">
+        <v>3472</v>
+      </c>
+      <c r="H11" s="12" t="n">
+        <v>3472</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="12" t="n">
+        <v>10001</v>
+      </c>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="14"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12" t="n">
+        <v>3947</v>
+      </c>
+      <c r="H12" s="12" t="n">
+        <v>3947</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="12" t="n">
+        <v>10001</v>
+      </c>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="14"/>
+    </row>
+    <row r="13" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15" t="n">
+        <v>19030701</v>
+      </c>
+      <c r="H13" s="15" t="n">
+        <v>19030701</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" s="12" t="n">
+        <v>4001</v>
+      </c>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="14"/>
+      <c r="R13" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+    </row>
+    <row r="14" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15" t="n">
+        <v>12</v>
+      </c>
+      <c r="H14" s="15" t="n">
+        <v>12</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L14" s="12" t="n">
+        <v>4002</v>
+      </c>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="14"/>
+      <c r="R14" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="17"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15" t="n">
+        <v>121415</v>
+      </c>
+      <c r="H15" s="15" t="n">
+        <v>15</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L15" s="12" t="n">
+        <v>4002</v>
+      </c>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="14"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="11" t="n">
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12" t="n">
+        <v>173456974</v>
+      </c>
+      <c r="H16" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="12" t="n">
         <v>4001</v>
       </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="14"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="B17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15" t="n">
+        <v>855276</v>
+      </c>
+      <c r="H17" s="15" t="n">
+        <v>855276</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="12" t="n">
+        <v>4004</v>
+      </c>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="14"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15" t="n">
+        <v>855278</v>
+      </c>
+      <c r="H18" s="15" t="n">
+        <v>855278</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="12" t="n">
+        <v>4004</v>
+      </c>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="14"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12" t="n">
+        <v>173456974</v>
+      </c>
+      <c r="H19" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13" t="n">
-        <v>655276</v>
-      </c>
-      <c r="H4" s="13" t="n">
-        <v>655276</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="11" t="n">
-        <v>4004</v>
-      </c>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="L19" s="12" t="n">
+        <v>4001</v>
+      </c>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="14"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="11" t="n">
-        <v>46</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="11" t="n">
+      <c r="B20" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12" t="n">
+        <v>23222</v>
+      </c>
+      <c r="H20" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="12" t="n">
         <v>4001</v>
       </c>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="11" t="n">
-        <v>47</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="11" t="n">
-        <v>4001</v>
-      </c>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11" t="n">
-        <v>25392417</v>
-      </c>
-      <c r="H9" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" s="11" t="n">
-        <v>3002</v>
-      </c>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11" t="n">
-        <v>3472</v>
-      </c>
-      <c r="H11" s="11" t="n">
-        <v>3472</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="L11" s="11" t="n">
-        <v>10001</v>
-      </c>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11" t="n">
-        <v>3947</v>
-      </c>
-      <c r="H12" s="11" t="n">
-        <v>3947</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="L12" s="11" t="n">
-        <v>10001</v>
-      </c>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-    </row>
-    <row r="13" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13" t="n">
-        <v>19030701</v>
-      </c>
-      <c r="H13" s="13" t="n">
-        <v>19030701</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J13" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" s="11" t="n">
-        <v>4001</v>
-      </c>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="R13" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
-    </row>
-    <row r="14" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13" t="n">
-        <v>12</v>
-      </c>
-      <c r="H14" s="13" t="n">
-        <v>12</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="J14" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="L14" s="11" t="n">
-        <v>4002</v>
-      </c>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="R14" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13" t="n">
-        <v>121415</v>
-      </c>
-      <c r="H15" s="13" t="n">
-        <v>15</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="J15" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="L15" s="11" t="n">
-        <v>4002</v>
-      </c>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11" t="n">
-        <v>173456974</v>
-      </c>
-      <c r="H16" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J16" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" s="11" t="n">
-        <v>4001</v>
-      </c>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-    </row>
-    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13" t="n">
-        <v>855276</v>
-      </c>
-      <c r="H17" s="13" t="n">
-        <v>855276</v>
-      </c>
-      <c r="I17" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="J17" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="11" t="n">
-        <v>4004</v>
-      </c>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-    </row>
-    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13" t="n">
-        <v>855278</v>
-      </c>
-      <c r="H18" s="13" t="n">
-        <v>855278</v>
-      </c>
-      <c r="I18" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="J18" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="11" t="n">
-        <v>4004</v>
-      </c>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="18" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/prizmer/static/excel/heat_template_for_load.xlsx
+++ b/prizmer/static/excel/heat_template_for_load.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="62">
   <si>
     <t xml:space="preserve">Населенный пункт</t>
   </si>
@@ -197,6 +197,15 @@
   </si>
   <si>
     <t xml:space="preserve"> да</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Корпус 32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Квартира 0201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Взлёт</t>
   </si>
 </sst>
 </file>
@@ -398,7 +407,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -414,7 +423,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -430,7 +439,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -640,10 +649,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA20"/>
+  <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M34" activeCellId="0" sqref="M34"/>
+      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -658,7 +667,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="26.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="18.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="12.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="12.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1360,6 +1369,43 @@
       <c r="O20" s="18" t="s">
         <v>58</v>
       </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12" t="n">
+        <v>17344</v>
+      </c>
+      <c r="H21" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="J21" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="12" t="n">
+        <v>4001</v>
+      </c>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/prizmer/static/excel/heat_template_for_load.xlsx
+++ b/prizmer/static/excel/heat_template_for_load.xlsx
@@ -19,8 +19,31 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>&lt;анонимный&gt;</author>
+  </authors>
+  <commentList>
+    <comment ref="O20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Да — будут создаваться 4 импульсных канала считывания данных</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="63">
   <si>
     <t xml:space="preserve">Населенный пункт</t>
   </si>
@@ -64,7 +87,7 @@
     <t xml:space="preserve">Стояк </t>
   </si>
   <si>
-    <t xml:space="preserve">Импульсные каналы</t>
+    <t xml:space="preserve">Дополнительные данные</t>
   </si>
   <si>
     <t xml:space="preserve">г.Москва</t>
@@ -205,7 +228,10 @@
     <t xml:space="preserve">Квартира 0201</t>
   </si>
   <si>
-    <t xml:space="preserve">Взлёт</t>
+    <t xml:space="preserve">ВЗЛЕТ ТСР-М ТСРВ-043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВЗЛЕТ ТСР-М ТСРВ-024М</t>
   </si>
 </sst>
 </file>
@@ -649,10 +675,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA21"/>
+  <dimension ref="A1:AA22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
+      <selection pane="topLeft" activeCell="R13" activeCellId="0" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -667,7 +693,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="26.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="18.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="12.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="14.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1406,6 +1432,43 @@
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
       <c r="O21" s="14"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12" t="n">
+        <v>17344</v>
+      </c>
+      <c r="H22" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="12" t="n">
+        <v>4001</v>
+      </c>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1425,5 +1488,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>